--- a/data/industry/CFM/Flash Wafer.xlsx
+++ b/data/industry/CFM/Flash Wafer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\CFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68CF16F-8A6B-44D6-964C-1A1BDCB63EB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB144050-A711-47AC-B299-F1DC79561870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="8">
   <si>
     <t>Base Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -65,9 +65,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="179" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -130,33 +130,33 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -438,13 +438,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A122" sqref="A122:C122"/>
+      <selection pane="bottomRight" activeCell="A123" sqref="A123:D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3263,21 +3263,137 @@
         <v>19</v>
       </c>
     </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>46049</v>
+      </c>
+      <c r="B123" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="10">
+        <v>19</v>
+      </c>
+      <c r="F123" s="10">
+        <v>19</v>
+      </c>
+      <c r="G123" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>46051</v>
+      </c>
+      <c r="B124" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="10">
+        <v>19</v>
+      </c>
+      <c r="F124" s="10">
+        <v>19</v>
+      </c>
+      <c r="G124" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>46052</v>
+      </c>
+      <c r="B125" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" s="10">
+        <v>19</v>
+      </c>
+      <c r="F125" s="10">
+        <v>19</v>
+      </c>
+      <c r="G125" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B126" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" s="10">
+        <v>19</v>
+      </c>
+      <c r="F126" s="10">
+        <v>19</v>
+      </c>
+      <c r="G126" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B127" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="10">
+        <v>19</v>
+      </c>
+      <c r="F127" s="10">
+        <v>19</v>
+      </c>
+      <c r="G127" s="10">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71734CED-25E0-4599-A4D6-BAA4DFE2F205}">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A122" sqref="A122:C122"/>
+      <selection pane="bottomRight" activeCell="E123" sqref="E123:G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6096,6 +6212,121 @@
         <v>20</v>
       </c>
     </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>46049</v>
+      </c>
+      <c r="B123" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="10">
+        <v>20</v>
+      </c>
+      <c r="F123" s="10">
+        <v>20</v>
+      </c>
+      <c r="G123" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>46051</v>
+      </c>
+      <c r="B124" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="10">
+        <v>20</v>
+      </c>
+      <c r="F124" s="10">
+        <v>20</v>
+      </c>
+      <c r="G124" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>46052</v>
+      </c>
+      <c r="B125" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" s="10">
+        <v>20</v>
+      </c>
+      <c r="F125" s="10">
+        <v>20</v>
+      </c>
+      <c r="G125" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B126" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" s="10">
+        <v>20</v>
+      </c>
+      <c r="F126" s="10">
+        <v>20</v>
+      </c>
+      <c r="G126" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B127" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="10">
+        <v>20</v>
+      </c>
+      <c r="F127" s="10">
+        <v>20</v>
+      </c>
+      <c r="G127" s="10">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6104,13 +6335,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DF3FEF-B1BB-46E2-A380-08118BE83F0E}">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J111" sqref="J111"/>
+      <selection pane="bottomRight" activeCell="E122" sqref="E122:G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8929,6 +9160,121 @@
         <v>16</v>
       </c>
     </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>46049</v>
+      </c>
+      <c r="B123" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="10">
+        <v>16</v>
+      </c>
+      <c r="F123" s="10">
+        <v>16</v>
+      </c>
+      <c r="G123" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>46051</v>
+      </c>
+      <c r="B124" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="10">
+        <v>16</v>
+      </c>
+      <c r="F124" s="10">
+        <v>16</v>
+      </c>
+      <c r="G124" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>46052</v>
+      </c>
+      <c r="B125" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" s="10">
+        <v>16</v>
+      </c>
+      <c r="F125" s="10">
+        <v>16</v>
+      </c>
+      <c r="G125" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B126" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" s="10">
+        <v>16</v>
+      </c>
+      <c r="F126" s="10">
+        <v>16</v>
+      </c>
+      <c r="G126" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B127" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="10">
+        <v>16</v>
+      </c>
+      <c r="F127" s="10">
+        <v>16</v>
+      </c>
+      <c r="G127" s="10">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8937,13 +9283,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9880E409-A6D2-4363-A52D-1827A2E6AA40}">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I129" sqref="I129"/>
+      <selection pane="bottomRight" activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11762,6 +12108,121 @@
         <v>10</v>
       </c>
     </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>46049</v>
+      </c>
+      <c r="B123" s="1">
+        <v>46049</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="10">
+        <v>10</v>
+      </c>
+      <c r="F123" s="10">
+        <v>10</v>
+      </c>
+      <c r="G123" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>46051</v>
+      </c>
+      <c r="B124" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="10">
+        <v>10</v>
+      </c>
+      <c r="F124" s="10">
+        <v>10</v>
+      </c>
+      <c r="G124" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>46052</v>
+      </c>
+      <c r="B125" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" s="10">
+        <v>10</v>
+      </c>
+      <c r="F125" s="10">
+        <v>10</v>
+      </c>
+      <c r="G125" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B126" s="1">
+        <v>46057</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" s="10">
+        <v>10</v>
+      </c>
+      <c r="F126" s="10">
+        <v>10</v>
+      </c>
+      <c r="G126" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B127" s="1">
+        <v>46059</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="10">
+        <v>10</v>
+      </c>
+      <c r="F127" s="10">
+        <v>10</v>
+      </c>
+      <c r="G127" s="10">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
